--- a/src/test/resources/dataDriven/MenuSuperior.xlsx
+++ b/src/test/resources/dataDriven/MenuSuperior.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CP1060M" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>SubjectHeading</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>pruebas2022Cho@yahoo.com</t>
+  </si>
+  <si>
+    <t>prueas2020Cho@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -691,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +720,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>12345</v>
@@ -829,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
